--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey\source\repos\NodeRecoveryCmd\Node-Recovery-Cmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000052E8-66CF-4508-99EC-481ADE7FD815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1816A-12E3-4928-AEBD-6FC86D312681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{EFDDE785-DCD1-4C2B-AF5A-2BD0FE6E0DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Исходный вариант ext</t>
   </si>
@@ -70,6 +71,18 @@
   </si>
   <si>
     <t>i3-M380</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>(05)</t>
+  </si>
+  <si>
+    <t>Предварительно вычисленные таблицы для Hi-Low</t>
   </si>
 </sst>
 </file>
@@ -94,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,16 +115,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -426,16 +458,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA20192-EF18-4E6B-A56A-ABF1E6169445}">
-  <dimension ref="B4:Q12"/>
+  <dimension ref="B4:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -672,6 +705,26 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
+      <c r="E12">
+        <v>84.534099999999995</v>
+      </c>
+      <c r="F12">
+        <v>77.395200000000003</v>
+      </c>
+      <c r="G12">
+        <v>83.654600000000002</v>
+      </c>
+      <c r="H12">
+        <v>82.866799999999998</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I10:I12" si="2">(SUM(E12:H12)-LARGE(E12:H12,1)-SMALL(E12:H12,1))/2</f>
+        <v>83.260700000000014</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J10:J13" si="3">I12/I$6</f>
+        <v>1.2253816407701625</v>
+      </c>
       <c r="L12">
         <v>302.29700000000003</v>
       </c>
@@ -685,12 +738,40 @@
         <v>304.48700000000002</v>
       </c>
       <c r="P12">
-        <f t="shared" ref="P12" si="2">(SUM(L12:O12)-LARGE(L12:O12,1)-SMALL(L12:O12,1))/2</f>
+        <f t="shared" ref="P12" si="4">(SUM(L12:O12)-LARGE(L12:O12,1)-SMALL(L12:O12,1))/2</f>
         <v>304.197</v>
       </c>
       <c r="Q12">
         <f>P12/P$6</f>
         <v>1.5932633938625758</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>76.353999999999999</v>
+      </c>
+      <c r="F13">
+        <v>59.992699999999999</v>
+      </c>
+      <c r="G13">
+        <v>51.312600000000003</v>
+      </c>
+      <c r="H13">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13" si="5">(SUM(E13:H13)-LARGE(E13:H13,1)-SMALL(E13:H13,1))/2</f>
+        <v>64.996350000000021</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.95657776126157679</v>
       </c>
     </row>
   </sheetData>
@@ -700,4 +781,194 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F49894C-3342-437E-9863-67E854CBA092}">
+  <dimension ref="C1:T6"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="20" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>11</v>
+      </c>
+      <c r="Q2">
+        <v>12</v>
+      </c>
+      <c r="R2">
+        <v>13</v>
+      </c>
+      <c r="S2">
+        <v>14</v>
+      </c>
+      <c r="T2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey\source\repos\NodeRecoveryCmd\Node-Recovery-Cmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1816A-12E3-4928-AEBD-6FC86D312681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3FE321-E3CA-4A7D-8ED4-D7DAD6EA4FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{EFDDE785-DCD1-4C2B-AF5A-2BD0FE6E0DB5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Исходный вариант ext</t>
   </si>
@@ -83,6 +83,24 @@
   </si>
   <si>
     <t>Предварительно вычисленные таблицы для Hi-Low</t>
+  </si>
+  <si>
+    <t>(06)</t>
+  </si>
+  <si>
+    <t>Убрал загрузку из таблиц в массивы thigh/tlow</t>
+  </si>
+  <si>
+    <t>не эффективно, комилятор смог разложить почти все значения из массивов thigh/tlow по регистрам, shuffle обошелся на 1-2 инструкции короче</t>
+  </si>
+  <si>
+    <t>если гонять по старым данным даёт 400 - поможет зачитывание кеша или перекладывание thigh/tlow в удобном порядке?</t>
+  </si>
+  <si>
+    <t>(07)</t>
+  </si>
+  <si>
+    <t>Грузим thigh/tlow в отдельные переменные</t>
   </si>
 </sst>
 </file>
@@ -458,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA20192-EF18-4E6B-A56A-ABF1E6169445}">
-  <dimension ref="B4:Q13"/>
+  <dimension ref="B4:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +489,7 @@
     <col min="11" max="11" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
@@ -489,7 +507,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>1</v>
       </c>
@@ -527,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -564,7 +582,7 @@
         <v>190.92699999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -589,7 +607,7 @@
         <v>1.3975002483562498</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -617,7 +635,7 @@
         <v>1.437429310452671</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -642,7 +660,7 @@
         <v>1.4456033585123644</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -670,7 +688,7 @@
         <v>1.5362206497771402</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -698,7 +716,7 @@
         <v>1.538087855567835</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -746,7 +764,7 @@
         <v>1.5932633938625758</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -772,6 +790,112 @@
       <c r="J13">
         <f t="shared" si="3"/>
         <v>0.95657776126157679</v>
+      </c>
+      <c r="L13">
+        <v>282.49200000000002</v>
+      </c>
+      <c r="M13">
+        <v>386.21499999999997</v>
+      </c>
+      <c r="N13">
+        <v>395.923</v>
+      </c>
+      <c r="O13">
+        <v>391.68799999999999</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P14" si="6">(SUM(L13:O13)-LARGE(L13:O13,1)-SMALL(L13:O13,1))/2</f>
+        <v>388.95150000000012</v>
+      </c>
+      <c r="Q13">
+        <f>P13/P$6</f>
+        <v>2.0371738936871169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>393.65499999999997</v>
+      </c>
+      <c r="M14">
+        <v>397.529</v>
+      </c>
+      <c r="N14">
+        <v>387.96</v>
+      </c>
+      <c r="O14">
+        <v>394.61099999999999</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>394.13300000000004</v>
+      </c>
+      <c r="Q14">
+        <f>P14/P$6</f>
+        <v>2.064312538299979</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>380.00299999999999</v>
+      </c>
+      <c r="M15">
+        <v>386.90199999999999</v>
+      </c>
+      <c r="N15">
+        <v>384.09800000000001</v>
+      </c>
+      <c r="O15">
+        <v>385.81299999999999</v>
+      </c>
+      <c r="P15">
+        <f>(SUM(L15:O15)-LARGE(L15:O15,1)-SMALL(L15:O15,1))/2</f>
+        <v>384.95549999999992</v>
+      </c>
+      <c r="Q15">
+        <f>P15/P$6</f>
+        <v>2.0162444284988501</v>
+      </c>
+      <c r="S15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16">
+        <v>376.904</v>
+      </c>
+      <c r="M16">
+        <v>391.03899999999999</v>
+      </c>
+      <c r="N16">
+        <v>385.27600000000001</v>
+      </c>
+      <c r="O16">
+        <v>386.23700000000002</v>
+      </c>
+      <c r="P16">
+        <f>(SUM(L16:O16)-LARGE(L16:O16,1)-SMALL(L16:O16,1))/2</f>
+        <v>385.75650000000007</v>
+      </c>
+      <c r="Q16">
+        <f>P16/P$6</f>
+        <v>2.0204397492235255</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey\source\repos\NodeRecoveryCmd\Node-Recovery-Cmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3FE321-E3CA-4A7D-8ED4-D7DAD6EA4FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56050F41-2C94-4671-90BF-A22E5B1D84BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{EFDDE785-DCD1-4C2B-AF5A-2BD0FE6E0DB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{EFDDE785-DCD1-4C2B-AF5A-2BD0FE6E0DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Исходный вариант ext</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Грузим thigh/tlow в отдельные переменные</t>
+  </si>
+  <si>
+    <t>Исходный вариант ext исправленный</t>
+  </si>
+  <si>
+    <t>Исправленный вариант ext</t>
   </si>
 </sst>
 </file>
@@ -154,14 +160,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA20192-EF18-4E6B-A56A-ABF1E6169445}">
-  <dimension ref="B4:S17"/>
+  <dimension ref="B4:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,22 +496,22 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E5">
@@ -584,317 +590,392 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <v>180.23099999999999</v>
+      </c>
+      <c r="M7">
+        <v>182.80099999999999</v>
+      </c>
+      <c r="N7">
+        <v>182.28299999999999</v>
+      </c>
+      <c r="O7">
+        <v>183.04499999999999</v>
+      </c>
+      <c r="P7">
+        <f>(SUM(L7:O7)-LARGE(L7:O7,1)-SMALL(L7:O7,1))/2</f>
+        <v>182.54199999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>90.597499999999997</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>99.317899999999995</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>95.314300000000003</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>94.596900000000005</v>
-      </c>
-      <c r="I7">
-        <f>(SUM(E7:H7)-LARGE(E7:H7,1)-SMALL(E7:H7,1))/2</f>
-        <v>94.95559999999999</v>
-      </c>
-      <c r="J7">
-        <f>I7/I$6</f>
-        <v>1.3975002483562498</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>97.608099999999993</v>
-      </c>
-      <c r="F8">
-        <v>97.889399999999995</v>
-      </c>
-      <c r="G8">
-        <v>97.729200000000006</v>
-      </c>
-      <c r="H8">
-        <v>97.0291</v>
       </c>
       <c r="I8">
         <f>(SUM(E8:H8)-LARGE(E8:H8,1)-SMALL(E8:H8,1))/2</f>
-        <v>97.66865</v>
+        <v>94.95559999999999</v>
       </c>
       <c r="J8">
         <f>I8/I$6</f>
-        <v>1.437429310452671</v>
+        <v>1.3975002483562498</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>98.103200000000001</v>
+        <v>97.608099999999993</v>
       </c>
       <c r="F9">
-        <v>99.9786</v>
+        <v>97.889399999999995</v>
       </c>
       <c r="G9">
-        <v>98.344899999999996</v>
+        <v>97.729200000000006</v>
       </c>
       <c r="H9">
-        <v>95.3035</v>
+        <v>97.0291</v>
       </c>
       <c r="I9">
         <f>(SUM(E9:H9)-LARGE(E9:H9,1)-SMALL(E9:H9,1))/2</f>
-        <v>98.224049999999977</v>
+        <v>97.66865</v>
       </c>
       <c r="J9">
         <f>I9/I$6</f>
+        <v>1.437429310452671</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>98.103200000000001</v>
+      </c>
+      <c r="F10">
+        <v>99.9786</v>
+      </c>
+      <c r="G10">
+        <v>98.344899999999996</v>
+      </c>
+      <c r="H10">
+        <v>95.3035</v>
+      </c>
+      <c r="I10">
+        <f>(SUM(E10:H10)-LARGE(E10:H10,1)-SMALL(E10:H10,1))/2</f>
+        <v>98.224049999999977</v>
+      </c>
+      <c r="J10">
+        <f>I10/I$6</f>
         <v>1.4456033585123644</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>289.63099999999997</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>292.89299999999997</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>293.71899999999999</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>293.92899999999997</v>
       </c>
-      <c r="P10">
-        <f t="shared" ref="P7:P10" si="0">(SUM(L10:O10)-LARGE(L10:O10,1)-SMALL(L10:O10,1))/2</f>
+      <c r="P11">
+        <f t="shared" ref="P11" si="0">(SUM(L11:O11)-LARGE(L11:O11,1)-SMALL(L11:O11,1))/2</f>
         <v>293.30600000000004</v>
       </c>
-      <c r="Q10">
-        <f>P10/P$6</f>
+      <c r="Q11">
+        <f t="shared" ref="Q11:Q19" si="1">P11/P$6</f>
         <v>1.5362206497771402</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>293.065</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>297.452</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>291.21300000000002</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>294.26</v>
       </c>
-      <c r="P11">
-        <f t="shared" ref="P11" si="1">(SUM(L11:O11)-LARGE(L11:O11,1)-SMALL(L11:O11,1))/2</f>
+      <c r="P12">
+        <f t="shared" ref="P12" si="2">(SUM(L12:O12)-LARGE(L12:O12,1)-SMALL(L12:O12,1))/2</f>
         <v>293.66250000000002</v>
       </c>
-      <c r="Q11">
-        <f>P11/P$6</f>
+      <c r="Q12">
+        <f t="shared" si="1"/>
         <v>1.538087855567835</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>84.534099999999995</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>77.395200000000003</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>83.654600000000002</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>82.866799999999998</v>
       </c>
-      <c r="I12">
-        <f t="shared" ref="I10:I12" si="2">(SUM(E12:H12)-LARGE(E12:H12,1)-SMALL(E12:H12,1))/2</f>
+      <c r="I13">
+        <f t="shared" ref="I13" si="3">(SUM(E13:H13)-LARGE(E13:H13,1)-SMALL(E13:H13,1))/2</f>
         <v>83.260700000000014</v>
       </c>
-      <c r="J12">
-        <f t="shared" ref="J10:J13" si="3">I12/I$6</f>
+      <c r="J13">
+        <f t="shared" ref="J13:J14" si="4">I13/I$6</f>
         <v>1.2253816407701625</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>302.29700000000003</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>303.90699999999998</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>305.49299999999999</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>304.48700000000002</v>
       </c>
-      <c r="P12">
-        <f t="shared" ref="P12" si="4">(SUM(L12:O12)-LARGE(L12:O12,1)-SMALL(L12:O12,1))/2</f>
+      <c r="P13">
+        <f t="shared" ref="P13" si="5">(SUM(L13:O13)-LARGE(L13:O13,1)-SMALL(L13:O13,1))/2</f>
         <v>304.197</v>
       </c>
-      <c r="Q12">
-        <f>P12/P$6</f>
+      <c r="Q13">
+        <f t="shared" si="1"/>
         <v>1.5932633938625758</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>76.353999999999999</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>59.992699999999999</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>51.312600000000003</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>70</v>
       </c>
-      <c r="I13">
-        <f t="shared" ref="I13" si="5">(SUM(E13:H13)-LARGE(E13:H13,1)-SMALL(E13:H13,1))/2</f>
+      <c r="I14">
+        <f t="shared" ref="I14" si="6">(SUM(E14:H14)-LARGE(E14:H14,1)-SMALL(E14:H14,1))/2</f>
         <v>64.996350000000021</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
+      <c r="J14">
+        <f t="shared" si="4"/>
         <v>0.95657776126157679</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>282.49200000000002</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>386.21499999999997</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>395.923</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>391.68799999999999</v>
       </c>
-      <c r="P13">
-        <f t="shared" ref="P13:P14" si="6">(SUM(L13:O13)-LARGE(L13:O13,1)-SMALL(L13:O13,1))/2</f>
+      <c r="P14">
+        <f t="shared" ref="P14:P15" si="7">(SUM(L14:O14)-LARGE(L14:O14,1)-SMALL(L14:O14,1))/2</f>
         <v>388.95150000000012</v>
       </c>
-      <c r="Q13">
-        <f>P13/P$6</f>
+      <c r="Q14">
+        <f t="shared" si="1"/>
         <v>2.0371738936871169</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L14">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L15">
         <v>393.65499999999997</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>397.529</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <v>387.96</v>
       </c>
-      <c r="O14">
+      <c r="O15">
         <v>394.61099999999999</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="6"/>
+      <c r="P15">
+        <f t="shared" si="7"/>
         <v>394.13300000000004</v>
       </c>
-      <c r="Q14">
-        <f>P14/P$6</f>
+      <c r="Q15">
+        <f t="shared" si="1"/>
         <v>2.064312538299979</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>380.00299999999999</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>386.90199999999999</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>384.09800000000001</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <v>385.81299999999999</v>
-      </c>
-      <c r="P15">
-        <f>(SUM(L15:O15)-LARGE(L15:O15,1)-SMALL(L15:O15,1))/2</f>
-        <v>384.95549999999992</v>
-      </c>
-      <c r="Q15">
-        <f>P15/P$6</f>
-        <v>2.0162444284988501</v>
-      </c>
-      <c r="S15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16">
-        <v>376.904</v>
-      </c>
-      <c r="M16">
-        <v>391.03899999999999</v>
-      </c>
-      <c r="N16">
-        <v>385.27600000000001</v>
-      </c>
-      <c r="O16">
-        <v>386.23700000000002</v>
       </c>
       <c r="P16">
         <f>(SUM(L16:O16)-LARGE(L16:O16,1)-SMALL(L16:O16,1))/2</f>
+        <v>384.95549999999992</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>2.0162444284988501</v>
+      </c>
+      <c r="S16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17">
+        <v>376.904</v>
+      </c>
+      <c r="M17">
+        <v>391.03899999999999</v>
+      </c>
+      <c r="N17">
+        <v>385.27600000000001</v>
+      </c>
+      <c r="O17">
+        <v>386.23700000000002</v>
+      </c>
+      <c r="P17">
+        <f>(SUM(L17:O17)-LARGE(L17:O17,1)-SMALL(L17:O17,1))/2</f>
         <v>385.75650000000007</v>
       </c>
-      <c r="Q16">
-        <f>P16/P$6</f>
+      <c r="Q17">
+        <f t="shared" si="1"/>
         <v>2.0204397492235255</v>
       </c>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L17" t="s">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19">
+        <v>346.78100000000001</v>
+      </c>
+      <c r="M19">
+        <v>364.21800000000002</v>
+      </c>
+      <c r="N19">
+        <v>362.21300000000002</v>
+      </c>
+      <c r="O19">
+        <v>354.11799999999999</v>
+      </c>
+      <c r="P19">
+        <f>(SUM(L19:O19)-LARGE(L19:O19,1)-SMALL(L19:O19,1))/2</f>
+        <v>358.16549999999995</v>
+      </c>
+      <c r="Q19">
+        <f>P19/P$7</f>
+        <v>1.9620991333501332</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="L20">
+        <v>375.90600000000001</v>
+      </c>
+      <c r="M20">
+        <v>381.197</v>
+      </c>
+      <c r="N20">
+        <v>386.04199999999997</v>
+      </c>
+      <c r="O20">
+        <v>384.91899999999998</v>
+      </c>
+      <c r="P20">
+        <f>(SUM(L20:O20)-LARGE(L20:O20,1)-SMALL(L20:O20,1))/2</f>
+        <v>383.05799999999999</v>
+      </c>
+      <c r="Q20">
+        <f>P20/P$7</f>
+        <v>2.0984650107920371</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -921,24 +1002,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E2">
@@ -991,102 +1072,102 @@
       </c>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey\source\repos\NodeRecoveryCmd\Node-Recovery-Cmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56050F41-2C94-4671-90BF-A22E5B1D84BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062AB554-BA2A-4A40-B68B-11F58C988CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{EFDDE785-DCD1-4C2B-AF5A-2BD0FE6E0DB5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Исходный вариант ext</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Убрал первую итерацию цикла, которая всегда вычисляет 0</t>
   </si>
   <si>
-    <t>i9-10900K</t>
-  </si>
-  <si>
     <t>i3-M380</t>
   </si>
   <si>
@@ -107,6 +104,45 @@
   </si>
   <si>
     <t>Исправленный вариант ext</t>
+  </si>
+  <si>
+    <t>i9-10900K 4 node</t>
+  </si>
+  <si>
+    <t>i9-10900K 2 node</t>
+  </si>
+  <si>
+    <t>i9-10900K 3 node</t>
+  </si>
+  <si>
+    <t>(08)</t>
+  </si>
+  <si>
+    <t>Для 2 и 3 нодов применил ускоренный вариант GF_multiply_region_w32</t>
+  </si>
+  <si>
+    <t>Умножение в логарифмическом пространстве с коррекцией через &amp;</t>
+  </si>
+  <si>
+    <t>Умножение в логарифмическом пространстве с коррекцией через вычитание</t>
+  </si>
+  <si>
+    <t>Умножение в логарифмическом пространстве с коррекцией через &amp; каждая операция</t>
+  </si>
+  <si>
+    <t>Храним признак 0 в старшем байте в логарифмическом пространстве</t>
+  </si>
+  <si>
+    <t>(09)</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>Убрал лишние параметры и инициализацию из GF_multilpy_region_w32</t>
+  </si>
+  <si>
+    <t>X201i</t>
   </si>
 </sst>
 </file>
@@ -158,10 +194,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,38 +521,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA20192-EF18-4E6B-A56A-ABF1E6169445}">
-  <dimension ref="B4:S21"/>
+  <dimension ref="B4:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3" t="s">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Z4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>1</v>
       </c>
@@ -550,439 +613,871 @@
       <c r="Q5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>4</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="S6">
+        <v>191.08</v>
+      </c>
+      <c r="T6">
+        <v>190.774</v>
+      </c>
+      <c r="U6">
+        <v>192.09200000000001</v>
+      </c>
+      <c r="V6">
+        <v>190.44900000000001</v>
+      </c>
+      <c r="W6">
+        <f>(SUM(S6:V6)-LARGE(S6:V6,1)-SMALL(S6:V6,1))/2</f>
+        <v>190.92699999999999</v>
+      </c>
+      <c r="Z6">
         <v>61.839399999999998</v>
       </c>
-      <c r="F6">
+      <c r="AA6">
         <v>67.751499999999993</v>
       </c>
-      <c r="G6">
+      <c r="AB6">
         <v>69.078900000000004</v>
       </c>
-      <c r="H6">
+      <c r="AC6">
         <v>68.141999999999996</v>
       </c>
-      <c r="I6">
-        <f>(SUM(E6:H6)-LARGE(E6:H6,1)-SMALL(E6:H6,1))/2</f>
+      <c r="AD6">
+        <f>(SUM(Z6:AC6)-LARGE(Z6:AC6,1)-SMALL(Z6:AC6,1))/2</f>
         <v>67.94674999999998</v>
       </c>
-      <c r="L6">
-        <v>191.08</v>
-      </c>
-      <c r="M6">
-        <v>190.774</v>
-      </c>
-      <c r="N6">
-        <v>192.09200000000001</v>
-      </c>
-      <c r="O6">
-        <v>190.44900000000001</v>
-      </c>
-      <c r="P6">
-        <f>(SUM(L6:O6)-LARGE(L6:O6,1)-SMALL(L6:O6,1))/2</f>
-        <v>190.92699999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>206.726</v>
+      </c>
+      <c r="F7">
+        <v>210.13900000000001</v>
+      </c>
+      <c r="G7">
+        <v>210.06299999999999</v>
+      </c>
+      <c r="H7">
+        <v>211.23099999999999</v>
+      </c>
+      <c r="I7">
+        <f>(SUM(E7:H7)-LARGE(E7:H7,1)-SMALL(E7:H7,1))/2</f>
+        <v>210.101</v>
       </c>
       <c r="L7">
-        <v>180.23099999999999</v>
+        <v>298.91699999999997</v>
       </c>
       <c r="M7">
-        <v>182.80099999999999</v>
+        <v>295.60199999999998</v>
       </c>
       <c r="N7">
-        <v>182.28299999999999</v>
+        <v>297.17099999999999</v>
       </c>
       <c r="O7">
-        <v>183.04499999999999</v>
+        <v>280.03399999999999</v>
       </c>
       <c r="P7">
         <f>(SUM(L7:O7)-LARGE(L7:O7,1)-SMALL(L7:O7,1))/2</f>
-        <v>182.54199999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+        <v>296.38650000000013</v>
+      </c>
+      <c r="S7">
+        <v>148.51300000000001</v>
+      </c>
+      <c r="T7">
+        <v>149.142</v>
+      </c>
+      <c r="U7">
+        <v>148.429</v>
+      </c>
+      <c r="V7">
+        <v>148.738</v>
+      </c>
+      <c r="W7">
+        <f>(SUM(S7:V7)-LARGE(S7:V7,1)-SMALL(S7:V7,1))/2</f>
+        <v>148.62549999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="Z8">
         <v>90.597499999999997</v>
       </c>
-      <c r="F8">
+      <c r="AA8">
         <v>99.317899999999995</v>
       </c>
-      <c r="G8">
+      <c r="AB8">
         <v>95.314300000000003</v>
       </c>
-      <c r="H8">
+      <c r="AC8">
         <v>94.596900000000005</v>
       </c>
-      <c r="I8">
-        <f>(SUM(E8:H8)-LARGE(E8:H8,1)-SMALL(E8:H8,1))/2</f>
+      <c r="AD8">
+        <f>(SUM(Z8:AC8)-LARGE(Z8:AC8,1)-SMALL(Z8:AC8,1))/2</f>
         <v>94.95559999999999</v>
       </c>
-      <c r="J8">
-        <f>I8/I$6</f>
+      <c r="AE8">
+        <f>AD8/AD$6</f>
         <v>1.3975002483562498</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="Z9">
         <v>97.608099999999993</v>
       </c>
-      <c r="F9">
+      <c r="AA9">
         <v>97.889399999999995</v>
       </c>
-      <c r="G9">
+      <c r="AB9">
         <v>97.729200000000006</v>
       </c>
-      <c r="H9">
+      <c r="AC9">
         <v>97.0291</v>
       </c>
-      <c r="I9">
-        <f>(SUM(E9:H9)-LARGE(E9:H9,1)-SMALL(E9:H9,1))/2</f>
+      <c r="AD9">
+        <f>(SUM(Z9:AC9)-LARGE(Z9:AC9,1)-SMALL(Z9:AC9,1))/2</f>
         <v>97.66865</v>
       </c>
-      <c r="J9">
-        <f>I9/I$6</f>
+      <c r="AE9">
+        <f>AD9/AD$6</f>
         <v>1.437429310452671</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="Z10">
         <v>98.103200000000001</v>
       </c>
-      <c r="F10">
+      <c r="AA10">
         <v>99.9786</v>
       </c>
-      <c r="G10">
+      <c r="AB10">
         <v>98.344899999999996</v>
       </c>
-      <c r="H10">
+      <c r="AC10">
         <v>95.3035</v>
       </c>
-      <c r="I10">
-        <f>(SUM(E10:H10)-LARGE(E10:H10,1)-SMALL(E10:H10,1))/2</f>
+      <c r="AD10">
+        <f>(SUM(Z10:AC10)-LARGE(Z10:AC10,1)-SMALL(Z10:AC10,1))/2</f>
         <v>98.224049999999977</v>
       </c>
-      <c r="J10">
-        <f>I10/I$6</f>
+      <c r="AE10">
+        <f>AD10/AD$6</f>
         <v>1.4456033585123644</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="L11">
+      <c r="S11">
         <v>289.63099999999997</v>
       </c>
-      <c r="M11">
+      <c r="T11">
         <v>292.89299999999997</v>
       </c>
-      <c r="N11">
+      <c r="U11">
         <v>293.71899999999999</v>
       </c>
-      <c r="O11">
+      <c r="V11">
         <v>293.92899999999997</v>
       </c>
-      <c r="P11">
-        <f t="shared" ref="P11" si="0">(SUM(L11:O11)-LARGE(L11:O11,1)-SMALL(L11:O11,1))/2</f>
+      <c r="W11">
+        <f t="shared" ref="W11" si="0">(SUM(S11:V11)-LARGE(S11:V11,1)-SMALL(S11:V11,1))/2</f>
         <v>293.30600000000004</v>
       </c>
-      <c r="Q11">
-        <f t="shared" ref="Q11:Q19" si="1">P11/P$6</f>
+      <c r="X11">
+        <f t="shared" ref="X11:X17" si="1">W11/W$6</f>
         <v>1.5362206497771402</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="L12">
+      <c r="S12">
         <v>293.065</v>
       </c>
-      <c r="M12">
+      <c r="T12">
         <v>297.452</v>
       </c>
-      <c r="N12">
+      <c r="U12">
         <v>291.21300000000002</v>
       </c>
-      <c r="O12">
+      <c r="V12">
         <v>294.26</v>
       </c>
-      <c r="P12">
-        <f t="shared" ref="P12" si="2">(SUM(L12:O12)-LARGE(L12:O12,1)-SMALL(L12:O12,1))/2</f>
+      <c r="W12">
+        <f t="shared" ref="W12" si="2">(SUM(S12:V12)-LARGE(S12:V12,1)-SMALL(S12:V12,1))/2</f>
         <v>293.66250000000002</v>
       </c>
-      <c r="Q12">
+      <c r="X12">
         <f t="shared" si="1"/>
         <v>1.538087855567835</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="E13">
-        <v>84.534099999999995</v>
-      </c>
-      <c r="F13">
-        <v>77.395200000000003</v>
-      </c>
-      <c r="G13">
-        <v>83.654600000000002</v>
-      </c>
-      <c r="H13">
-        <v>82.866799999999998</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13" si="3">(SUM(E13:H13)-LARGE(E13:H13,1)-SMALL(E13:H13,1))/2</f>
-        <v>83.260700000000014</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ref="J13:J14" si="4">I13/I$6</f>
-        <v>1.2253816407701625</v>
-      </c>
-      <c r="L13">
+      <c r="S13">
         <v>302.29700000000003</v>
       </c>
-      <c r="M13">
+      <c r="T13">
         <v>303.90699999999998</v>
       </c>
-      <c r="N13">
+      <c r="U13">
         <v>305.49299999999999</v>
       </c>
-      <c r="O13">
+      <c r="V13">
         <v>304.48700000000002</v>
       </c>
-      <c r="P13">
-        <f t="shared" ref="P13" si="5">(SUM(L13:O13)-LARGE(L13:O13,1)-SMALL(L13:O13,1))/2</f>
+      <c r="W13">
+        <f t="shared" ref="W13" si="3">(SUM(S13:V13)-LARGE(S13:V13,1)-SMALL(S13:V13,1))/2</f>
         <v>304.197</v>
       </c>
-      <c r="Q13">
+      <c r="X13">
         <f t="shared" si="1"/>
         <v>1.5932633938625758</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Z13">
+        <v>84.534099999999995</v>
+      </c>
+      <c r="AA13">
+        <v>77.395200000000003</v>
+      </c>
+      <c r="AB13">
+        <v>83.654600000000002</v>
+      </c>
+      <c r="AC13">
+        <v>82.866799999999998</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" ref="AD13" si="4">(SUM(Z13:AC13)-LARGE(Z13:AC13,1)-SMALL(Z13:AC13,1))/2</f>
+        <v>83.260700000000014</v>
+      </c>
+      <c r="AE13">
+        <f>AD13/AD$6</f>
+        <v>1.2253816407701625</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>76.353999999999999</v>
-      </c>
-      <c r="F14">
-        <v>59.992699999999999</v>
-      </c>
-      <c r="G14">
-        <v>51.312600000000003</v>
-      </c>
-      <c r="H14">
-        <v>70</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ref="I14" si="6">(SUM(E14:H14)-LARGE(E14:H14,1)-SMALL(E14:H14,1))/2</f>
-        <v>64.996350000000021</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>0.95657776126157679</v>
-      </c>
-      <c r="L14">
+      <c r="S14">
         <v>282.49200000000002</v>
       </c>
-      <c r="M14">
+      <c r="T14">
         <v>386.21499999999997</v>
       </c>
-      <c r="N14">
+      <c r="U14">
         <v>395.923</v>
       </c>
-      <c r="O14">
+      <c r="V14">
         <v>391.68799999999999</v>
       </c>
-      <c r="P14">
-        <f t="shared" ref="P14:P15" si="7">(SUM(L14:O14)-LARGE(L14:O14,1)-SMALL(L14:O14,1))/2</f>
+      <c r="W14">
+        <f t="shared" ref="W14:W15" si="5">(SUM(S14:V14)-LARGE(S14:V14,1)-SMALL(S14:V14,1))/2</f>
         <v>388.95150000000012</v>
       </c>
-      <c r="Q14">
+      <c r="X14">
         <f t="shared" si="1"/>
         <v>2.0371738936871169</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L15">
+      <c r="Z14">
+        <v>76.353999999999999</v>
+      </c>
+      <c r="AA14">
+        <v>59.992699999999999</v>
+      </c>
+      <c r="AB14">
+        <v>51.312600000000003</v>
+      </c>
+      <c r="AC14">
+        <v>70</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" ref="AD14" si="6">(SUM(Z14:AC14)-LARGE(Z14:AC14,1)-SMALL(Z14:AC14,1))/2</f>
+        <v>64.996350000000021</v>
+      </c>
+      <c r="AE14">
+        <f>AD14/AD$6</f>
+        <v>0.95657776126157679</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S15">
         <v>393.65499999999997</v>
       </c>
-      <c r="M15">
+      <c r="T15">
         <v>397.529</v>
       </c>
-      <c r="N15">
+      <c r="U15">
         <v>387.96</v>
       </c>
-      <c r="O15">
+      <c r="V15">
         <v>394.61099999999999</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="7"/>
+      <c r="W15">
+        <f t="shared" si="5"/>
         <v>394.13300000000004</v>
       </c>
-      <c r="Q15">
+      <c r="X15">
         <f t="shared" si="1"/>
         <v>2.064312538299979</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16">
+      <c r="S16">
         <v>380.00299999999999</v>
       </c>
-      <c r="M16">
+      <c r="T16">
         <v>386.90199999999999</v>
       </c>
-      <c r="N16">
+      <c r="U16">
         <v>384.09800000000001</v>
       </c>
-      <c r="O16">
+      <c r="V16">
         <v>385.81299999999999</v>
       </c>
-      <c r="P16">
-        <f>(SUM(L16:O16)-LARGE(L16:O16,1)-SMALL(L16:O16,1))/2</f>
+      <c r="W16">
+        <f>(SUM(S16:V16)-LARGE(S16:V16,1)-SMALL(S16:V16,1))/2</f>
         <v>384.95549999999992</v>
       </c>
-      <c r="Q16">
+      <c r="X16">
         <f t="shared" si="1"/>
         <v>2.0162444284988501</v>
       </c>
-      <c r="S16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="AB16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17">
+      <c r="S17">
         <v>376.904</v>
       </c>
-      <c r="M17">
+      <c r="T17">
         <v>391.03899999999999</v>
       </c>
-      <c r="N17">
+      <c r="U17">
         <v>385.27600000000001</v>
       </c>
-      <c r="O17">
+      <c r="V17">
         <v>386.23700000000002</v>
       </c>
-      <c r="P17">
-        <f>(SUM(L17:O17)-LARGE(L17:O17,1)-SMALL(L17:O17,1))/2</f>
+      <c r="W17">
+        <f>(SUM(S17:V17)-LARGE(S17:V17,1)-SMALL(S17:V17,1))/2</f>
         <v>385.75650000000007</v>
       </c>
-      <c r="Q17">
+      <c r="X17">
         <f t="shared" si="1"/>
         <v>2.0204397492235255</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19">
-        <v>346.78100000000001</v>
-      </c>
-      <c r="M19">
-        <v>364.21800000000002</v>
-      </c>
-      <c r="N19">
-        <v>362.21300000000002</v>
-      </c>
-      <c r="O19">
-        <v>354.11799999999999</v>
-      </c>
-      <c r="P19">
-        <f>(SUM(L19:O19)-LARGE(L19:O19,1)-SMALL(L19:O19,1))/2</f>
-        <v>358.16549999999995</v>
-      </c>
-      <c r="Q19">
-        <f>P19/P$7</f>
-        <v>1.9620991333501332</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="S19">
+        <v>298.06700000000001</v>
+      </c>
+      <c r="T19">
+        <v>301.01499999999999</v>
+      </c>
+      <c r="U19">
+        <v>299.86700000000002</v>
+      </c>
+      <c r="V19">
+        <v>298.565</v>
+      </c>
+      <c r="W19">
+        <f>(SUM(S19:V19)-LARGE(S19:V19,1)-SMALL(S19:V19,1))/2</f>
+        <v>299.21600000000007</v>
+      </c>
+      <c r="X19">
+        <f>W19/W$7</f>
+        <v>2.0132211498026935</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>393.33199999999999</v>
+      </c>
+      <c r="F20">
+        <v>382.76799999999997</v>
+      </c>
+      <c r="G20">
+        <v>395.05700000000002</v>
+      </c>
+      <c r="H20">
+        <v>394.35300000000001</v>
+      </c>
+      <c r="I20">
+        <f>(SUM(E20:H20)-LARGE(E20:H20,1)-SMALL(E20:H20,1))/2</f>
+        <v>393.84249999999997</v>
+      </c>
+      <c r="J20">
+        <f>I20/I$7</f>
+        <v>1.8745389122374476</v>
+      </c>
       <c r="L20">
-        <v>375.90600000000001</v>
+        <v>324.536</v>
       </c>
       <c r="M20">
-        <v>381.197</v>
+        <v>326.214</v>
       </c>
       <c r="N20">
-        <v>386.04199999999997</v>
+        <v>326.21100000000001</v>
       </c>
       <c r="O20">
-        <v>384.91899999999998</v>
+        <v>331.108</v>
       </c>
       <c r="P20">
         <f>(SUM(L20:O20)-LARGE(L20:O20,1)-SMALL(L20:O20,1))/2</f>
-        <v>383.05799999999999</v>
+        <v>326.21249999999998</v>
       </c>
       <c r="Q20">
         <f>P20/P$7</f>
-        <v>2.0984650107920371</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L21" t="s">
-        <v>22</v>
+        <v>1.1006321138108512</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21">
+        <v>310.64800000000002</v>
+      </c>
+      <c r="T21">
+        <v>312.2</v>
+      </c>
+      <c r="U21">
+        <v>312.96699999999998</v>
+      </c>
+      <c r="V21">
+        <v>316.62700000000001</v>
+      </c>
+      <c r="W21">
+        <f>(SUM(S21:V21)-LARGE(S21:V21,1)-SMALL(S21:V21,1))/2</f>
+        <v>312.58350000000002</v>
+      </c>
+      <c r="X21">
+        <f>W21/W$7</f>
+        <v>2.1031619742238052</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22">
+        <v>307.43</v>
+      </c>
+      <c r="T22">
+        <v>307.60700000000003</v>
+      </c>
+      <c r="U22">
+        <v>307.61900000000003</v>
+      </c>
+      <c r="V22">
+        <v>308.94099999999997</v>
+      </c>
+      <c r="W22">
+        <f>(SUM(S22:V22)-LARGE(S22:V22,1)-SMALL(S22:V22,1))/2</f>
+        <v>307.61299999999994</v>
+      </c>
+      <c r="X22">
+        <f>W22/W$7</f>
+        <v>2.0697188571274787</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23">
+        <v>308.22699999999998</v>
+      </c>
+      <c r="T23">
+        <v>308.65499999999997</v>
+      </c>
+      <c r="U23">
+        <v>314.447</v>
+      </c>
+      <c r="V23">
+        <v>311.24</v>
+      </c>
+      <c r="W23">
+        <f>(SUM(S23:V23)-LARGE(S23:V23,1)-SMALL(S23:V23,1))/2</f>
+        <v>309.94749999999999</v>
+      </c>
+      <c r="X23">
+        <f>W23/W$7</f>
+        <v>2.0854261213587177</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="S24">
+        <v>307.38099999999997</v>
+      </c>
+      <c r="T24">
+        <v>306.61399999999998</v>
+      </c>
+      <c r="U24">
+        <v>306.09699999999998</v>
+      </c>
+      <c r="V24">
+        <v>305.95999999999998</v>
+      </c>
+      <c r="W24">
+        <f>(SUM(S24:V24)-LARGE(S24:V24,1)-SMALL(S24:V24,1))/2</f>
+        <v>306.35550000000001</v>
+      </c>
+      <c r="X24">
+        <f>W24/W$7</f>
+        <v>2.0612579940858073</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25">
+        <v>293</v>
+      </c>
+      <c r="T25">
+        <v>294.79399999999998</v>
+      </c>
+      <c r="U25">
+        <v>295.55200000000002</v>
+      </c>
+      <c r="V25">
+        <v>293.38099999999997</v>
+      </c>
+      <c r="W25">
+        <f>(SUM(S25:V25)-LARGE(S25:V25,1)-SMALL(S25:V25,1))/2</f>
+        <v>294.08749999999992</v>
+      </c>
+      <c r="X25">
+        <f>W25/W$7</f>
+        <v>1.9787149580657428</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>453.61799999999999</v>
+      </c>
+      <c r="F26">
+        <v>453.61799999999999</v>
+      </c>
+      <c r="G26">
+        <v>453.87599999999998</v>
+      </c>
+      <c r="H26">
+        <v>454.38499999999999</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26" si="7">(SUM(E26:H26)-LARGE(E26:H26,1)-SMALL(E26:H26,1))/2</f>
+        <v>453.74700000000007</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:J28" si="8">I26/I$7</f>
+        <v>2.1596613057529477</v>
+      </c>
+      <c r="L26">
+        <v>386.661</v>
+      </c>
+      <c r="M26">
+        <v>386.661</v>
+      </c>
+      <c r="N26">
+        <v>384.18299999999999</v>
+      </c>
+      <c r="O26">
+        <v>381.84</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26" si="9">(SUM(L26:O26)-LARGE(L26:O26,1)-SMALL(L26:O26,1))/2</f>
+        <v>385.42200000000003</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q28" si="10">P26/P$7</f>
+        <v>1.3004033584525607</v>
+      </c>
+      <c r="S26">
+        <v>327.58499999999998</v>
+      </c>
+      <c r="T26">
+        <v>331.24299999999999</v>
+      </c>
+      <c r="U26">
+        <v>329.14100000000002</v>
+      </c>
+      <c r="V26">
+        <v>330.84800000000001</v>
+      </c>
+      <c r="W26">
+        <f>(SUM(S26:V26)-LARGE(S26:V26,1)-SMALL(S26:V26,1))/2</f>
+        <v>329.99450000000002</v>
+      </c>
+      <c r="X26">
+        <f>W26/W$7</f>
+        <v>2.2203087626282176</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>72.096500000000006</v>
+      </c>
+      <c r="F27">
+        <v>80.210099999999997</v>
+      </c>
+      <c r="G27">
+        <v>83.334199999999996</v>
+      </c>
+      <c r="H27">
+        <v>86.233199999999997</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27" si="11">(SUM(E27:H27)-LARGE(E27:H27,1)-SMALL(E27:H27,1))/2</f>
+        <v>81.772150000000011</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="8"/>
+        <v>0.38920400188480786</v>
+      </c>
+      <c r="L27">
+        <v>68.697599999999994</v>
+      </c>
+      <c r="M27">
+        <v>78.669399999999996</v>
+      </c>
+      <c r="N27">
+        <v>82.099500000000006</v>
+      </c>
+      <c r="O27">
+        <v>84.607399999999998</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="P27" si="12">(SUM(L27:O27)-LARGE(L27:O27,1)-SMALL(L27:O27,1))/2</f>
+        <v>80.384450000000001</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="10"/>
+        <v>0.27121495074843144</v>
+      </c>
+      <c r="S27">
+        <v>65.456599999999995</v>
+      </c>
+      <c r="T27">
+        <v>76.118700000000004</v>
+      </c>
+      <c r="U27">
+        <v>76.946600000000004</v>
+      </c>
+      <c r="V27">
+        <v>78.677099999999996</v>
+      </c>
+      <c r="W27">
+        <f>(SUM(S27:V27)-LARGE(S27:V27,1)-SMALL(S27:V27,1))/2</f>
+        <v>76.532650000000018</v>
+      </c>
+      <c r="X27">
+        <f>W27/W$7</f>
+        <v>0.51493619870076168</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="E28">
+        <v>64.0304</v>
+      </c>
+      <c r="F28">
+        <v>79.132599999999996</v>
+      </c>
+      <c r="G28">
+        <v>87.081999999999994</v>
+      </c>
+      <c r="H28">
+        <v>87.391099999999994</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28" si="13">(SUM(E28:H28)-LARGE(E28:H28,1)-SMALL(E28:H28,1))/2</f>
+        <v>83.107300000000009</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="8"/>
+        <v>0.39555880267109633</v>
+      </c>
+      <c r="L28">
+        <v>66.503900000000002</v>
+      </c>
+      <c r="M28">
+        <v>86.104100000000003</v>
+      </c>
+      <c r="N28">
+        <v>83.748099999999994</v>
+      </c>
+      <c r="O28">
+        <v>85.016599999999997</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ref="P28" si="14">(SUM(L28:O28)-LARGE(L28:O28,1)-SMALL(L28:O28,1))/2</f>
+        <v>84.382350000000002</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="10"/>
+        <v>0.28470375675005427</v>
+      </c>
+      <c r="S28">
+        <v>75.823499999999996</v>
+      </c>
+      <c r="T28">
+        <v>76.0809</v>
+      </c>
+      <c r="U28">
+        <v>78.612399999999994</v>
+      </c>
+      <c r="V28">
+        <v>78.849900000000005</v>
+      </c>
+      <c r="W28">
+        <f>(SUM(S28:V28)-LARGE(S28:V28,1)-SMALL(S28:V28,1))/2</f>
+        <v>77.346649999999997</v>
+      </c>
+      <c r="X28">
+        <f>W28/W$7</f>
+        <v>0.52041305159612605</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="L4:Q4"/>
     <mergeCell ref="E4:J4"/>
-    <mergeCell ref="L4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1002,24 +1497,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E2">
@@ -1072,8 +1567,8 @@
       </c>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
-        <v>15</v>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1098,7 +1593,7 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
       <c r="D4">
         <v>1</v>
       </c>
@@ -1122,7 +1617,7 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="D5">
         <v>2</v>
       </c>
@@ -1146,7 +1641,7 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="D6">
         <v>3</v>
       </c>

--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey\source\repos\NodeRecoveryCmd\Node-Recovery-Cmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062AB554-BA2A-4A40-B68B-11F58C988CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AB34F3-40F3-44BF-8D2E-082AA1F975E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{EFDDE785-DCD1-4C2B-AF5A-2BD0FE6E0DB5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Исходный вариант ext</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>X201i</t>
+  </si>
+  <si>
+    <t>(11)</t>
+  </si>
+  <si>
+    <t>Убрал все произведения в обычном пространстве</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>Вычитание и обратный элемент в логарифмическом пространстве</t>
   </si>
 </sst>
 </file>
@@ -521,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA20192-EF18-4E6B-A56A-ABF1E6169445}">
-  <dimension ref="B4:AE30"/>
+  <dimension ref="B4:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1295,7 @@
         <v>453.74700000000007</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26:J28" si="8">I26/I$7</f>
+        <f t="shared" ref="J26:J30" si="8">I26/I$7</f>
         <v>2.1596613057529477</v>
       </c>
       <c r="L26">
@@ -1303,7 +1315,7 @@
         <v>385.42200000000003</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26:Q28" si="10">P26/P$7</f>
+        <f t="shared" ref="Q26:Q30" si="10">P26/P$7</f>
         <v>1.3004033584525607</v>
       </c>
       <c r="S26">
@@ -1396,7 +1408,12 @@
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
       <c r="E28">
         <v>64.0304</v>
       </c>
@@ -1460,15 +1477,143 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
+      <c r="E29">
+        <v>64</v>
+      </c>
+      <c r="F29">
+        <v>82.995800000000003</v>
+      </c>
+      <c r="G29">
+        <v>84.406400000000005</v>
+      </c>
+      <c r="H29">
+        <v>83.543000000000006</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29" si="15">(SUM(E29:H29)-LARGE(E29:H29,1)-SMALL(E29:H29,1))/2</f>
+        <v>83.26939999999999</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="8"/>
+        <v>0.39633033636203535</v>
+      </c>
+      <c r="L29">
+        <v>62</v>
+      </c>
+      <c r="M29">
+        <v>82.017700000000005</v>
+      </c>
+      <c r="N29">
+        <v>82.635300000000001</v>
+      </c>
+      <c r="O29">
+        <v>82.331100000000006</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29" si="16">(SUM(L29:O29)-LARGE(L29:O29,1)-SMALL(L29:O29,1))/2</f>
+        <v>82.174400000000006</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="10"/>
+        <v>0.2772541934264886</v>
+      </c>
+      <c r="S29">
+        <v>73</v>
+      </c>
+      <c r="T29">
+        <v>78.590299999999999</v>
+      </c>
+      <c r="U29">
+        <v>77.9131</v>
+      </c>
+      <c r="V29">
+        <v>78.287800000000004</v>
+      </c>
+      <c r="W29">
+        <f>(SUM(S29:V29)-LARGE(S29:V29,1)-SMALL(S29:V29,1))/2</f>
+        <v>78.100449999999995</v>
+      </c>
+      <c r="X29">
+        <f>W29/W$7</f>
+        <v>0.52548485959677194</v>
+      </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30">
+        <v>84.668099999999995</v>
+      </c>
+      <c r="F30">
+        <v>82.759</v>
+      </c>
+      <c r="G30">
+        <v>84.370999999999995</v>
+      </c>
+      <c r="H30">
+        <v>84.438400000000001</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30" si="17">(SUM(E30:H30)-LARGE(E30:H30,1)-SMALL(E30:H30,1))/2</f>
+        <v>84.404699999999991</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="8"/>
+        <v>0.40173392796797724</v>
+      </c>
+      <c r="L30">
+        <v>81.384799999999998</v>
+      </c>
+      <c r="M30">
+        <v>81.673199999999994</v>
+      </c>
+      <c r="N30">
+        <v>81.566299999999998</v>
+      </c>
+      <c r="O30">
+        <v>82.745000000000005</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30" si="18">(SUM(L30:O30)-LARGE(L30:O30,1)-SMALL(L30:O30,1))/2</f>
+        <v>81.61975000000001</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="10"/>
+        <v>0.27538281939292097</v>
+      </c>
+      <c r="S30">
+        <v>78.658299999999997</v>
+      </c>
+      <c r="T30">
+        <v>78.207599999999999</v>
+      </c>
+      <c r="U30">
+        <v>77.840599999999995</v>
+      </c>
+      <c r="V30">
+        <v>79.152299999999997</v>
+      </c>
+      <c r="W30">
+        <f>(SUM(S30:V30)-LARGE(S30:V30,1)-SMALL(S30:V30,1))/2</f>
+        <v>78.432949999999991</v>
+      </c>
+      <c r="X30">
+        <f>W30/W$7</f>
+        <v>0.5277220261664386</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
         <v>21</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L31" t="s">
         <v>21</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S31" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey\source\repos\NodeRecoveryCmd\Node-Recovery-Cmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AB34F3-40F3-44BF-8D2E-082AA1F975E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1EC1CE-ED76-467F-872A-20A6F24675AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{EFDDE785-DCD1-4C2B-AF5A-2BD0FE6E0DB5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>Исходный вариант ext</t>
   </si>
@@ -155,6 +155,84 @@
   </si>
   <si>
     <t>Вычитание и обратный элемент в логарифмическом пространстве</t>
+  </si>
+  <si>
+    <t>(13)</t>
+  </si>
+  <si>
+    <t>Реализиация обращений матриц в лог. Пространстве для 2 и 3 узлов</t>
+  </si>
+  <si>
+    <t>ig27</t>
+  </si>
+  <si>
+    <t>(14)</t>
+  </si>
+  <si>
+    <t>Оптимизация GF_multiply_region_w32 для умножения на 0 и 1</t>
+  </si>
+  <si>
+    <t>(15)</t>
+  </si>
+  <si>
+    <t>256-битные операции</t>
+  </si>
+  <si>
+    <t>(16)</t>
+  </si>
+  <si>
+    <t>Чтение Hi/Lo tables подряд</t>
+  </si>
+  <si>
+    <t>(17)</t>
+  </si>
+  <si>
+    <t>Оптимизировал скалярное произведение dot4</t>
+  </si>
+  <si>
+    <t>(18)</t>
+  </si>
+  <si>
+    <t>нормализация через %</t>
+  </si>
+  <si>
+    <t>(19)</t>
+  </si>
+  <si>
+    <t>нормализация через битовые операции с одним сравнением</t>
+  </si>
+  <si>
+    <t>(20)</t>
+  </si>
+  <si>
+    <t>Ещё улучшил нормализацию</t>
+  </si>
+  <si>
+    <t>mod в скалярном</t>
+  </si>
+  <si>
+    <t>Последовательное чтение HiLoTable для всех</t>
+  </si>
+  <si>
+    <t>Последовательное чтение HiLoTable для 2</t>
+  </si>
+  <si>
+    <t>(21)</t>
+  </si>
+  <si>
+    <t>(22)</t>
+  </si>
+  <si>
+    <t>Убрал лишние преобразования типов и переменные из GF_multiply_region_w32</t>
+  </si>
+  <si>
+    <t>gf_mult_by_one_ex на __m256i</t>
+  </si>
+  <si>
+    <t>(23)</t>
+  </si>
+  <si>
+    <t>Вынес if из GF_multiply_region</t>
   </si>
 </sst>
 </file>
@@ -533,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA20192-EF18-4E6B-A56A-ABF1E6169445}">
-  <dimension ref="B4:AE31"/>
+  <dimension ref="B4:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,11 +1238,11 @@
         <v>316.62700000000001</v>
       </c>
       <c r="W21">
-        <f>(SUM(S21:V21)-LARGE(S21:V21,1)-SMALL(S21:V21,1))/2</f>
+        <f t="shared" ref="W21:W38" si="7">(SUM(S21:V21)-LARGE(S21:V21,1)-SMALL(S21:V21,1))/2</f>
         <v>312.58350000000002</v>
       </c>
       <c r="X21">
-        <f>W21/W$7</f>
+        <f t="shared" ref="X21:X38" si="8">W21/W$7</f>
         <v>2.1031619742238052</v>
       </c>
     </row>
@@ -1186,11 +1264,11 @@
         <v>308.94099999999997</v>
       </c>
       <c r="W22">
-        <f>(SUM(S22:V22)-LARGE(S22:V22,1)-SMALL(S22:V22,1))/2</f>
+        <f t="shared" si="7"/>
         <v>307.61299999999994</v>
       </c>
       <c r="X22">
-        <f>W22/W$7</f>
+        <f t="shared" si="8"/>
         <v>2.0697188571274787</v>
       </c>
     </row>
@@ -1212,11 +1290,11 @@
         <v>311.24</v>
       </c>
       <c r="W23">
-        <f>(SUM(S23:V23)-LARGE(S23:V23,1)-SMALL(S23:V23,1))/2</f>
+        <f t="shared" si="7"/>
         <v>309.94749999999999</v>
       </c>
       <c r="X23">
-        <f>W23/W$7</f>
+        <f t="shared" si="8"/>
         <v>2.0854261213587177</v>
       </c>
     </row>
@@ -1235,11 +1313,11 @@
         <v>305.95999999999998</v>
       </c>
       <c r="W24">
-        <f>(SUM(S24:V24)-LARGE(S24:V24,1)-SMALL(S24:V24,1))/2</f>
+        <f t="shared" si="7"/>
         <v>306.35550000000001</v>
       </c>
       <c r="X24">
-        <f>W24/W$7</f>
+        <f t="shared" si="8"/>
         <v>2.0612579940858073</v>
       </c>
     </row>
@@ -1263,11 +1341,11 @@
         <v>293.38099999999997</v>
       </c>
       <c r="W25">
-        <f>(SUM(S25:V25)-LARGE(S25:V25,1)-SMALL(S25:V25,1))/2</f>
+        <f t="shared" si="7"/>
         <v>294.08749999999992</v>
       </c>
       <c r="X25">
-        <f>W25/W$7</f>
+        <f t="shared" si="8"/>
         <v>1.9787149580657428</v>
       </c>
     </row>
@@ -1291,11 +1369,11 @@
         <v>454.38499999999999</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26" si="7">(SUM(E26:H26)-LARGE(E26:H26,1)-SMALL(E26:H26,1))/2</f>
+        <f t="shared" ref="I26" si="9">(SUM(E26:H26)-LARGE(E26:H26,1)-SMALL(E26:H26,1))/2</f>
         <v>453.74700000000007</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26:J30" si="8">I26/I$7</f>
+        <f t="shared" ref="J26:J34" si="10">I26/I$7</f>
         <v>2.1596613057529477</v>
       </c>
       <c r="L26">
@@ -1311,11 +1389,11 @@
         <v>381.84</v>
       </c>
       <c r="P26">
-        <f t="shared" ref="P26" si="9">(SUM(L26:O26)-LARGE(L26:O26,1)-SMALL(L26:O26,1))/2</f>
+        <f t="shared" ref="P26" si="11">(SUM(L26:O26)-LARGE(L26:O26,1)-SMALL(L26:O26,1))/2</f>
         <v>385.42200000000003</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26:Q30" si="10">P26/P$7</f>
+        <f t="shared" ref="Q26:Q34" si="12">P26/P$7</f>
         <v>1.3004033584525607</v>
       </c>
       <c r="S26">
@@ -1331,11 +1409,11 @@
         <v>330.84800000000001</v>
       </c>
       <c r="W26">
-        <f>(SUM(S26:V26)-LARGE(S26:V26,1)-SMALL(S26:V26,1))/2</f>
+        <f t="shared" si="7"/>
         <v>329.99450000000002</v>
       </c>
       <c r="X26">
-        <f>W26/W$7</f>
+        <f t="shared" si="8"/>
         <v>2.2203087626282176</v>
       </c>
     </row>
@@ -1359,11 +1437,11 @@
         <v>86.233199999999997</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27" si="11">(SUM(E27:H27)-LARGE(E27:H27,1)-SMALL(E27:H27,1))/2</f>
+        <f t="shared" ref="I27" si="13">(SUM(E27:H27)-LARGE(E27:H27,1)-SMALL(E27:H27,1))/2</f>
         <v>81.772150000000011</v>
       </c>
       <c r="J27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.38920400188480786</v>
       </c>
       <c r="L27">
@@ -1379,11 +1457,11 @@
         <v>84.607399999999998</v>
       </c>
       <c r="P27">
-        <f t="shared" ref="P27" si="12">(SUM(L27:O27)-LARGE(L27:O27,1)-SMALL(L27:O27,1))/2</f>
+        <f t="shared" ref="P27" si="14">(SUM(L27:O27)-LARGE(L27:O27,1)-SMALL(L27:O27,1))/2</f>
         <v>80.384450000000001</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.27121495074843144</v>
       </c>
       <c r="S27">
@@ -1399,11 +1477,11 @@
         <v>78.677099999999996</v>
       </c>
       <c r="W27">
-        <f>(SUM(S27:V27)-LARGE(S27:V27,1)-SMALL(S27:V27,1))/2</f>
+        <f t="shared" si="7"/>
         <v>76.532650000000018</v>
       </c>
       <c r="X27">
-        <f>W27/W$7</f>
+        <f t="shared" si="8"/>
         <v>0.51493619870076168</v>
       </c>
     </row>
@@ -1427,11 +1505,11 @@
         <v>87.391099999999994</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28" si="13">(SUM(E28:H28)-LARGE(E28:H28,1)-SMALL(E28:H28,1))/2</f>
+        <f t="shared" ref="I28" si="15">(SUM(E28:H28)-LARGE(E28:H28,1)-SMALL(E28:H28,1))/2</f>
         <v>83.107300000000009</v>
       </c>
       <c r="J28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.39555880267109633</v>
       </c>
       <c r="L28">
@@ -1447,11 +1525,11 @@
         <v>85.016599999999997</v>
       </c>
       <c r="P28">
-        <f t="shared" ref="P28" si="14">(SUM(L28:O28)-LARGE(L28:O28,1)-SMALL(L28:O28,1))/2</f>
+        <f t="shared" ref="P28" si="16">(SUM(L28:O28)-LARGE(L28:O28,1)-SMALL(L28:O28,1))/2</f>
         <v>84.382350000000002</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.28470375675005427</v>
       </c>
       <c r="S28">
@@ -1467,153 +1545,1225 @@
         <v>78.849900000000005</v>
       </c>
       <c r="W28">
-        <f>(SUM(S28:V28)-LARGE(S28:V28,1)-SMALL(S28:V28,1))/2</f>
+        <f t="shared" si="7"/>
         <v>77.346649999999997</v>
       </c>
       <c r="X28">
-        <f>W28/W$7</f>
+        <f t="shared" si="8"/>
         <v>0.52041305159612605</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
       <c r="E29">
-        <v>64</v>
+        <v>84.668099999999995</v>
       </c>
       <c r="F29">
-        <v>82.995800000000003</v>
+        <v>82.759</v>
       </c>
       <c r="G29">
-        <v>84.406400000000005</v>
+        <v>84.370999999999995</v>
       </c>
       <c r="H29">
-        <v>83.543000000000006</v>
+        <v>84.438400000000001</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29" si="15">(SUM(E29:H29)-LARGE(E29:H29,1)-SMALL(E29:H29,1))/2</f>
-        <v>83.26939999999999</v>
+        <f t="shared" ref="I29" si="17">(SUM(E29:H29)-LARGE(E29:H29,1)-SMALL(E29:H29,1))/2</f>
+        <v>84.404699999999991</v>
       </c>
       <c r="J29">
+        <f t="shared" si="10"/>
+        <v>0.40173392796797724</v>
+      </c>
+      <c r="L29">
+        <v>81.384799999999998</v>
+      </c>
+      <c r="M29">
+        <v>81.673199999999994</v>
+      </c>
+      <c r="N29">
+        <v>81.566299999999998</v>
+      </c>
+      <c r="O29">
+        <v>82.745000000000005</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29" si="18">(SUM(L29:O29)-LARGE(L29:O29,1)-SMALL(L29:O29,1))/2</f>
+        <v>81.61975000000001</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="12"/>
+        <v>0.27538281939292097</v>
+      </c>
+      <c r="S29">
+        <v>78.658299999999997</v>
+      </c>
+      <c r="T29">
+        <v>78.207599999999999</v>
+      </c>
+      <c r="U29">
+        <v>77.840599999999995</v>
+      </c>
+      <c r="V29">
+        <v>79.152299999999997</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="7"/>
+        <v>78.432949999999991</v>
+      </c>
+      <c r="X29">
         <f t="shared" si="8"/>
-        <v>0.39633033636203535</v>
-      </c>
-      <c r="L29">
-        <v>62</v>
-      </c>
-      <c r="M29">
-        <v>82.017700000000005</v>
-      </c>
-      <c r="N29">
-        <v>82.635300000000001</v>
-      </c>
-      <c r="O29">
-        <v>82.331100000000006</v>
-      </c>
-      <c r="P29">
-        <f t="shared" ref="P29" si="16">(SUM(L29:O29)-LARGE(L29:O29,1)-SMALL(L29:O29,1))/2</f>
-        <v>82.174400000000006</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="10"/>
-        <v>0.2772541934264886</v>
-      </c>
-      <c r="S29">
-        <v>73</v>
-      </c>
-      <c r="T29">
-        <v>78.590299999999999</v>
-      </c>
-      <c r="U29">
-        <v>77.9131</v>
-      </c>
-      <c r="V29">
-        <v>78.287800000000004</v>
-      </c>
-      <c r="W29">
-        <f>(SUM(S29:V29)-LARGE(S29:V29,1)-SMALL(S29:V29,1))/2</f>
-        <v>78.100449999999995</v>
-      </c>
-      <c r="X29">
-        <f>W29/W$7</f>
-        <v>0.52548485959677194</v>
+        <v>0.5277220261664386</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E30">
-        <v>84.668099999999995</v>
+        <v>89.231899999999996</v>
       </c>
       <c r="F30">
-        <v>82.759</v>
+        <v>92.963300000000004</v>
       </c>
       <c r="G30">
-        <v>84.370999999999995</v>
+        <v>92.253600000000006</v>
       </c>
       <c r="H30">
-        <v>84.438400000000001</v>
+        <v>91.430599999999998</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30" si="17">(SUM(E30:H30)-LARGE(E30:H30,1)-SMALL(E30:H30,1))/2</f>
-        <v>84.404699999999991</v>
+        <f t="shared" ref="I30:I34" si="19">(SUM(E30:H30)-LARGE(E30:H30,1)-SMALL(E30:H30,1))/2</f>
+        <v>91.842100000000016</v>
       </c>
       <c r="J30">
+        <f t="shared" si="10"/>
+        <v>0.43713309313139881</v>
+      </c>
+      <c r="L30">
+        <v>83.711399999999998</v>
+      </c>
+      <c r="M30">
+        <v>79.291700000000006</v>
+      </c>
+      <c r="N30">
+        <v>84.498900000000006</v>
+      </c>
+      <c r="O30">
+        <v>85.852500000000006</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30:P34" si="20">(SUM(L30:O30)-LARGE(L30:O30,1)-SMALL(L30:O30,1))/2</f>
+        <v>84.105150000000009</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="12"/>
+        <v>0.28376849147987498</v>
+      </c>
+      <c r="S30">
+        <v>75.837900000000005</v>
+      </c>
+      <c r="T30">
+        <v>77.108900000000006</v>
+      </c>
+      <c r="U30">
+        <v>77.721599999999995</v>
+      </c>
+      <c r="V30">
+        <v>77.546400000000006</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="7"/>
+        <v>77.327649999999977</v>
+      </c>
+      <c r="X30">
         <f t="shared" si="8"/>
-        <v>0.40173392796797724</v>
-      </c>
-      <c r="L30">
-        <v>81.384799999999998</v>
-      </c>
-      <c r="M30">
-        <v>81.673199999999994</v>
-      </c>
-      <c r="N30">
-        <v>81.566299999999998</v>
-      </c>
-      <c r="O30">
-        <v>82.745000000000005</v>
-      </c>
-      <c r="P30">
-        <f t="shared" ref="P30" si="18">(SUM(L30:O30)-LARGE(L30:O30,1)-SMALL(L30:O30,1))/2</f>
-        <v>81.61975000000001</v>
-      </c>
-      <c r="Q30">
+        <v>0.52028521350643064</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>410.911</v>
+      </c>
+      <c r="F31">
+        <v>423.30399999999997</v>
+      </c>
+      <c r="G31">
+        <v>421.98500000000001</v>
+      </c>
+      <c r="H31">
+        <v>422.81799999999998</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="19"/>
+        <v>422.40149999999994</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="10"/>
-        <v>0.27538281939292097</v>
-      </c>
-      <c r="S30">
-        <v>78.658299999999997</v>
-      </c>
-      <c r="T30">
-        <v>78.207599999999999</v>
-      </c>
-      <c r="U30">
-        <v>77.840599999999995</v>
-      </c>
-      <c r="V30">
-        <v>79.152299999999997</v>
-      </c>
-      <c r="W30">
-        <f>(SUM(S30:V30)-LARGE(S30:V30,1)-SMALL(S30:V30,1))/2</f>
-        <v>78.432949999999991</v>
-      </c>
-      <c r="X30">
-        <f>W30/W$7</f>
-        <v>0.5277220261664386</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
+        <v>2.0104687745417675</v>
+      </c>
+      <c r="L31">
+        <v>378.48</v>
+      </c>
+      <c r="M31">
+        <v>379.70499999999998</v>
+      </c>
+      <c r="N31">
+        <v>379.75200000000001</v>
+      </c>
+      <c r="O31">
+        <v>378.404</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="20"/>
+        <v>379.09249999999997</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="12"/>
+        <v>1.2790477973861827</v>
+      </c>
+      <c r="S31">
+        <v>342.89800000000002</v>
+      </c>
+      <c r="T31">
+        <v>343.49599999999998</v>
+      </c>
+      <c r="U31">
+        <v>345.76499999999999</v>
+      </c>
+      <c r="V31">
+        <v>348.93400000000003</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="7"/>
+        <v>344.63050000000004</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="8"/>
+        <v>2.3187844616166151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32">
+        <v>455.36399999999998</v>
+      </c>
+      <c r="F32">
+        <v>476.48</v>
+      </c>
+      <c r="G32">
+        <v>480.779</v>
+      </c>
+      <c r="H32">
+        <v>480.57499999999999</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="19"/>
+        <v>478.52750000000003</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="10"/>
+        <v>2.2776069604618732</v>
+      </c>
+      <c r="L32">
+        <v>407.92099999999999</v>
+      </c>
+      <c r="M32">
+        <v>412.09699999999998</v>
+      </c>
+      <c r="N32">
+        <v>406.71199999999999</v>
+      </c>
+      <c r="O32">
+        <v>411.45800000000003</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="20"/>
+        <v>409.68950000000007</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="12"/>
+        <v>1.3822812442537022</v>
+      </c>
+      <c r="S32">
+        <v>359.346</v>
+      </c>
+      <c r="T32">
+        <v>361</v>
+      </c>
+      <c r="U32">
+        <v>366.041</v>
+      </c>
+      <c r="V32">
+        <v>358.41800000000001</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="7"/>
+        <v>360.17299999999994</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="8"/>
+        <v>2.4233593831475764</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33">
+        <v>498.56200000000001</v>
+      </c>
+      <c r="F33">
+        <v>536.59100000000001</v>
+      </c>
+      <c r="G33">
+        <v>536.05499999999995</v>
+      </c>
+      <c r="H33">
+        <v>538.947</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="19"/>
+        <v>536.32300000000009</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="10"/>
+        <v>2.552691324648622</v>
+      </c>
+      <c r="L33">
+        <v>463.57100000000003</v>
+      </c>
+      <c r="M33">
+        <v>479.209</v>
+      </c>
+      <c r="N33">
+        <v>461.72500000000002</v>
+      </c>
+      <c r="O33">
+        <v>469.09699999999998</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="20"/>
+        <v>466.334</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="12"/>
+        <v>1.5733982485707001</v>
+      </c>
+      <c r="S33">
+        <v>383.43099999999998</v>
+      </c>
+      <c r="T33">
+        <v>383.79</v>
+      </c>
+      <c r="U33">
+        <v>384.00799999999998</v>
+      </c>
+      <c r="V33">
+        <v>376.15300000000002</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="7"/>
+        <v>383.6105</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="8"/>
+        <v>2.5810543951071665</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34">
+        <v>547.39200000000005</v>
+      </c>
+      <c r="F34">
+        <v>566.15599999999995</v>
+      </c>
+      <c r="G34">
+        <v>565.89200000000005</v>
+      </c>
+      <c r="H34">
+        <v>566.577</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="19"/>
+        <v>566.02399999999989</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="10"/>
+        <v>2.6940566679834932</v>
+      </c>
+      <c r="L34">
+        <v>505.71699999999998</v>
+      </c>
+      <c r="M34">
+        <v>501.61799999999999</v>
+      </c>
+      <c r="N34">
+        <v>501.09100000000001</v>
+      </c>
+      <c r="O34">
+        <v>490.60700000000003</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="20"/>
+        <v>501.35449999999992</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="12"/>
+        <v>1.6915564642789052</v>
+      </c>
+      <c r="S34">
+        <v>397.137</v>
+      </c>
+      <c r="T34">
+        <v>396.613</v>
+      </c>
+      <c r="U34">
+        <v>394.34899999999999</v>
+      </c>
+      <c r="V34">
+        <v>397.09899999999999</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="7"/>
+        <v>396.85599999999999</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="8"/>
+        <v>2.6701743644260252</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="S35">
+        <v>402.85700000000003</v>
+      </c>
+      <c r="T35">
+        <v>401.29599999999999</v>
+      </c>
+      <c r="U35">
+        <v>399.93200000000002</v>
+      </c>
+      <c r="V35">
+        <v>405.48200000000003</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="7"/>
+        <v>402.07650000000001</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="8"/>
+        <v>2.70529956164992</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36">
+        <v>543</v>
+      </c>
+      <c r="F36">
+        <v>582.43899999999996</v>
+      </c>
+      <c r="G36">
+        <v>582.63499999999999</v>
+      </c>
+      <c r="H36">
+        <v>586.71400000000006</v>
+      </c>
+      <c r="I36">
+        <f>(SUM(E36:H36)-LARGE(E36:H36,1)-SMALL(E36:H36,1))/2</f>
+        <v>582.53700000000003</v>
+      </c>
+      <c r="J36">
+        <f>I36/I$7</f>
+        <v>2.7726522006082792</v>
+      </c>
+      <c r="L36">
+        <v>513</v>
+      </c>
+      <c r="M36">
+        <v>515.59299999999996</v>
+      </c>
+      <c r="N36">
+        <v>513.30999999999995</v>
+      </c>
+      <c r="O36">
+        <v>516.24300000000005</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ref="P36:P41" si="21">(SUM(L36:O36)-LARGE(L36:O36,1)-SMALL(L36:O36,1))/2</f>
+        <v>514.4514999999999</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" ref="Q36:Q50" si="22">P36/P$7</f>
+        <v>1.7357453865138921</v>
+      </c>
+      <c r="S36">
+        <v>400</v>
+      </c>
+      <c r="T36">
+        <v>404.86799999999999</v>
+      </c>
+      <c r="U36">
+        <v>401.48700000000002</v>
+      </c>
+      <c r="V36">
+        <v>401.404</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="7"/>
+        <v>401.44550000000004</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="8"/>
+        <v>2.7010539914079361</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37">
+        <v>578.55200000000002</v>
+      </c>
+      <c r="F37">
+        <v>594.60299999999995</v>
+      </c>
+      <c r="G37">
+        <v>599.00599999999997</v>
+      </c>
+      <c r="H37">
+        <v>601.21500000000003</v>
+      </c>
+      <c r="I37">
+        <f>(SUM(E37:H37)-LARGE(E37:H37,1)-SMALL(E37:H37,1))/2</f>
+        <v>596.80449999999996</v>
+      </c>
+      <c r="J37">
+        <f>I37/I$7</f>
+        <v>2.8405600163730775</v>
+      </c>
+      <c r="L37">
+        <v>476.93099999999998</v>
+      </c>
+      <c r="M37">
+        <v>481.67</v>
+      </c>
+      <c r="N37">
+        <v>458.53699999999998</v>
+      </c>
+      <c r="O37">
+        <v>486.678</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="21"/>
+        <v>479.30049999999994</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="22"/>
+        <v>1.61714686735057</v>
+      </c>
+      <c r="S37">
+        <v>419.30399999999997</v>
+      </c>
+      <c r="T37">
+        <v>422.87599999999998</v>
+      </c>
+      <c r="U37">
+        <v>422.25200000000001</v>
+      </c>
+      <c r="V37">
+        <v>421.02</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="7"/>
+        <v>421.63600000000002</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="8"/>
+        <v>2.8369021466706603</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38">
+        <v>567.274</v>
+      </c>
+      <c r="F38">
+        <v>601.43499999999995</v>
+      </c>
+      <c r="G38">
+        <v>607.68100000000004</v>
+      </c>
+      <c r="H38">
+        <v>608.85599999999999</v>
+      </c>
+      <c r="I38">
+        <f>(SUM(E38:H38)-LARGE(E38:H38,1)-SMALL(E38:H38,1))/2</f>
+        <v>604.55799999999999</v>
+      </c>
+      <c r="J38">
+        <f>I38/I$7</f>
+        <v>2.8774636960319087</v>
+      </c>
+      <c r="L38">
+        <v>476.88600000000002</v>
+      </c>
+      <c r="M38">
+        <v>493.80099999999999</v>
+      </c>
+      <c r="N38">
+        <v>503.16800000000001</v>
+      </c>
+      <c r="O38">
+        <v>488.36</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="21"/>
+        <v>491.08050000000003</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="22"/>
+        <v>1.6568922673603548</v>
+      </c>
+      <c r="S38">
+        <v>422.06099999999998</v>
+      </c>
+      <c r="T38">
+        <v>418.55200000000002</v>
+      </c>
+      <c r="U38">
+        <v>423.84899999999999</v>
+      </c>
+      <c r="V38">
+        <v>421.733</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="7"/>
+        <v>421.89699999999999</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="8"/>
+        <v>2.8386582383238421</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39">
+        <v>494.26299999999998</v>
+      </c>
+      <c r="M39">
+        <v>515.84699999999998</v>
+      </c>
+      <c r="N39">
+        <v>514.26599999999996</v>
+      </c>
+      <c r="O39">
+        <v>517.49300000000005</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="21"/>
+        <v>515.05649999999991</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="22"/>
+        <v>1.7377866400797597</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="L40">
+        <v>507.87400000000002</v>
+      </c>
+      <c r="M40">
+        <v>518.66700000000003</v>
+      </c>
+      <c r="N40">
+        <v>516.54100000000005</v>
+      </c>
+      <c r="O40">
+        <v>514.86400000000003</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="21"/>
+        <v>515.70250000000021</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="22"/>
+        <v>1.7399662265319102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="E41">
+        <v>575.59400000000005</v>
+      </c>
+      <c r="F41">
+        <v>610.87599999999998</v>
+      </c>
+      <c r="G41">
+        <v>610.30700000000002</v>
+      </c>
+      <c r="H41">
+        <v>604.98900000000003</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41" si="23">(SUM(E41:H41)-LARGE(E41:H41,1)-SMALL(E41:H41,1))/2</f>
+        <v>607.64800000000002</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41:J42" si="24">I41/I$7</f>
+        <v>2.8921709082774476</v>
+      </c>
+      <c r="L41">
+        <v>503.68400000000003</v>
+      </c>
+      <c r="M41">
+        <v>520.61199999999997</v>
+      </c>
+      <c r="N41">
+        <v>516.95399999999995</v>
+      </c>
+      <c r="O41">
+        <v>518.93499999999995</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="21"/>
+        <v>517.94449999999995</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="22"/>
+        <v>1.7475306736305456</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="E42">
+        <v>555</v>
+      </c>
+      <c r="F42">
+        <v>611.05799999999999</v>
+      </c>
+      <c r="G42">
+        <v>616.36900000000003</v>
+      </c>
+      <c r="H42">
+        <v>602.39700000000005</v>
+      </c>
+      <c r="I42">
+        <f>(SUM(E42:H42)-LARGE(E42:H42,1)-SMALL(E42:H42,1))/2</f>
+        <v>606.72749999999996</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="24"/>
+        <v>2.8877896821052729</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43">
+        <v>642.39599999999996</v>
+      </c>
+      <c r="F43">
+        <v>664.11300000000006</v>
+      </c>
+      <c r="G43">
+        <v>660.79200000000003</v>
+      </c>
+      <c r="H43">
+        <v>657.53</v>
+      </c>
+      <c r="I43">
+        <f>(SUM(E43:H43)-LARGE(E43:H43,1)-SMALL(E43:H43,1))/2</f>
+        <v>659.16100000000006</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43" si="25">I43/I$7</f>
+        <v>3.1373529873727399</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44">
+        <v>639.101</v>
+      </c>
+      <c r="F44">
+        <v>657.17399999999998</v>
+      </c>
+      <c r="G44">
+        <v>667.27800000000002</v>
+      </c>
+      <c r="H44">
+        <v>668.053</v>
+      </c>
+      <c r="I44">
+        <f>(SUM(E44:H44)-LARGE(E44:H44,1)-SMALL(E44:H44,1))/2</f>
+        <v>662.22600000000011</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ref="J44" si="26">I44/I$7</f>
+        <v>3.1519412092279433</v>
+      </c>
+      <c r="L44">
+        <v>548.36900000000003</v>
+      </c>
+      <c r="M44">
+        <v>540.38099999999997</v>
+      </c>
+      <c r="N44">
+        <v>554.37800000000004</v>
+      </c>
+      <c r="O44">
+        <v>509.73899999999998</v>
+      </c>
+      <c r="P44">
+        <f t="shared" ref="P44" si="27">(SUM(L44:O44)-LARGE(L44:O44,1)-SMALL(L44:O44,1))/2</f>
+        <v>544.375</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="22"/>
+        <v>1.8367064626762681</v>
+      </c>
+      <c r="S44">
+        <v>476.40699999999998</v>
+      </c>
+      <c r="T44">
+        <v>474.50299999999999</v>
+      </c>
+      <c r="U44">
+        <v>477.09</v>
+      </c>
+      <c r="V44">
+        <v>474.70299999999997</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44" si="28">(SUM(S44:V44)-LARGE(S44:V44,1)-SMALL(S44:V44,1))/2</f>
+        <v>475.55500000000006</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44" si="29">W44/W$7</f>
+        <v>3.199686460264223</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="S45">
+        <v>474.39699999999999</v>
+      </c>
+      <c r="T45">
+        <v>474.54399999999998</v>
+      </c>
+      <c r="U45">
+        <v>472.04599999999999</v>
+      </c>
+      <c r="V45">
+        <v>474.83699999999999</v>
+      </c>
+      <c r="W45">
+        <f t="shared" ref="W45" si="30">(SUM(S45:V45)-LARGE(S45:V45,1)-SMALL(S45:V45,1))/2</f>
+        <v>474.47050000000002</v>
+      </c>
+      <c r="X45">
+        <f t="shared" ref="X45" si="31">W45/W$7</f>
+        <v>3.1923895966708287</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="E46">
+        <v>657.43799999999999</v>
+      </c>
+      <c r="F46">
+        <v>667.21</v>
+      </c>
+      <c r="G46">
+        <v>669.25400000000002</v>
+      </c>
+      <c r="H46">
+        <v>669.41800000000001</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ref="I46:I50" si="32">(SUM(E46:H46)-LARGE(E46:H46,1)-SMALL(E46:H46,1))/2</f>
+        <v>668.23199999999997</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46:J50" si="33">I46/I$7</f>
+        <v>3.1805274606022818</v>
+      </c>
+      <c r="L46">
+        <v>536.03200000000004</v>
+      </c>
+      <c r="M46">
+        <v>557.43100000000004</v>
+      </c>
+      <c r="N46">
+        <v>510.93</v>
+      </c>
+      <c r="O46">
+        <v>554.976</v>
+      </c>
+      <c r="P46">
+        <f t="shared" ref="P46" si="34">(SUM(L46:O46)-LARGE(L46:O46,1)-SMALL(L46:O46,1))/2</f>
+        <v>545.50400000000002</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="22"/>
+        <v>1.8405156780082756</v>
+      </c>
+      <c r="S46">
+        <v>476.13</v>
+      </c>
+      <c r="T46">
+        <v>475.08100000000002</v>
+      </c>
+      <c r="U46">
+        <v>473.649</v>
+      </c>
+      <c r="V46">
+        <v>476.90600000000001</v>
+      </c>
+      <c r="W46">
+        <f t="shared" ref="W46" si="35">(SUM(S46:V46)-LARGE(S46:V46,1)-SMALL(S46:V46,1))/2</f>
+        <v>475.60550000000006</v>
+      </c>
+      <c r="X46">
+        <f t="shared" ref="X46" si="36">W46/W$7</f>
+        <v>3.2000262404499922</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="E47">
+        <v>679.70899999999995</v>
+      </c>
+      <c r="F47">
+        <v>682.89400000000001</v>
+      </c>
+      <c r="G47">
+        <v>682.524</v>
+      </c>
+      <c r="H47">
+        <v>677.71100000000001</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="32"/>
+        <v>681.11649999999986</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="33"/>
+        <v>3.2418527279736882</v>
+      </c>
+      <c r="L47">
+        <v>576.66499999999996</v>
+      </c>
+      <c r="M47">
+        <v>589.79100000000005</v>
+      </c>
+      <c r="N47">
+        <v>583.89200000000005</v>
+      </c>
+      <c r="O47">
+        <v>564.97900000000004</v>
+      </c>
+      <c r="P47">
+        <f t="shared" ref="P47" si="37">(SUM(L47:O47)-LARGE(L47:O47,1)-SMALL(L47:O47,1))/2</f>
+        <v>580.27850000000001</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="22"/>
+        <v>1.9578438963987892</v>
+      </c>
+      <c r="S47">
+        <v>488.65199999999999</v>
+      </c>
+      <c r="T47">
+        <v>493.56799999999998</v>
+      </c>
+      <c r="U47">
+        <v>491.68700000000001</v>
+      </c>
+      <c r="V47">
+        <v>490.63099999999997</v>
+      </c>
+      <c r="W47">
+        <f t="shared" ref="W47:W50" si="38">(SUM(S47:V47)-LARGE(S47:V47,1)-SMALL(S47:V47,1))/2</f>
+        <v>491.15899999999999</v>
+      </c>
+      <c r="X47">
+        <f t="shared" ref="X47:X50" si="39">W47/W$7</f>
+        <v>3.3046751735065665</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48">
+        <v>668.15200000000004</v>
+      </c>
+      <c r="F48">
+        <v>683.37900000000002</v>
+      </c>
+      <c r="G48">
+        <v>688.83799999999997</v>
+      </c>
+      <c r="H48">
+        <v>684.57799999999997</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="32"/>
+        <v>683.97850000000005</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="33"/>
+        <v>3.2554747478593633</v>
+      </c>
+      <c r="L48">
+        <v>575.20000000000005</v>
+      </c>
+      <c r="M48">
+        <v>586.74199999999996</v>
+      </c>
+      <c r="N48">
+        <v>579.67700000000002</v>
+      </c>
+      <c r="O48">
+        <v>563.78599999999994</v>
+      </c>
+      <c r="P48">
+        <f t="shared" ref="P48:P50" si="40">(SUM(L48:O48)-LARGE(L48:O48,1)-SMALL(L48:O48,1))/2</f>
+        <v>577.4385000000002</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="22"/>
+        <v>1.948261813544139</v>
+      </c>
+      <c r="S48">
+        <v>493.92500000000001</v>
+      </c>
+      <c r="T48">
+        <v>493.11900000000003</v>
+      </c>
+      <c r="U48">
+        <v>490.48</v>
+      </c>
+      <c r="V48">
+        <v>489.67399999999998</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="38"/>
+        <v>491.79950000000008</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="39"/>
+        <v>3.308984662793399</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49">
+        <v>749.48</v>
+      </c>
+      <c r="F49">
+        <v>741.10599999999999</v>
+      </c>
+      <c r="G49">
+        <v>758.32500000000005</v>
+      </c>
+      <c r="H49">
+        <v>755.82399999999996</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="32"/>
+        <v>752.65199999999993</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="33"/>
+        <v>3.5823342106891443</v>
+      </c>
+      <c r="L49">
+        <v>601.58600000000001</v>
+      </c>
+      <c r="M49">
+        <v>574.60799999999995</v>
+      </c>
+      <c r="N49">
+        <v>603.27</v>
+      </c>
+      <c r="O49">
+        <v>619.02700000000004</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="40"/>
+        <v>602.428</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="22"/>
+        <v>2.0325757077329762</v>
+      </c>
+      <c r="S49">
+        <v>486.52199999999999</v>
+      </c>
+      <c r="T49">
+        <v>489.875</v>
+      </c>
+      <c r="U49">
+        <v>484.62299999999999</v>
+      </c>
+      <c r="V49">
+        <v>484.78399999999999</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="38"/>
+        <v>485.65300000000002</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="39"/>
+        <v>3.2676290407769879</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50">
+        <v>759.73199999999997</v>
+      </c>
+      <c r="F50">
+        <v>771.84699999999998</v>
+      </c>
+      <c r="G50">
+        <v>775.62900000000002</v>
+      </c>
+      <c r="H50">
+        <v>772.44799999999998</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="32"/>
+        <v>772.14750000000004</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="33"/>
+        <v>3.6751252968810242</v>
+      </c>
+      <c r="L50">
+        <v>587.16999999999996</v>
+      </c>
+      <c r="M50">
+        <v>613.779</v>
+      </c>
+      <c r="N50">
+        <v>623.33699999999999</v>
+      </c>
+      <c r="O50">
+        <v>622.27200000000005</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="40"/>
+        <v>618.02549999999997</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="22"/>
+        <v>2.0852012490447431</v>
+      </c>
+      <c r="S50">
+        <v>497.62</v>
+      </c>
+      <c r="T50">
+        <v>495.43</v>
+      </c>
+      <c r="U50">
+        <v>498.149</v>
+      </c>
+      <c r="V50">
+        <v>494.64100000000002</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="38"/>
+        <v>496.52500000000009</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="39"/>
+        <v>3.3407793413647076</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
         <v>21</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L52" t="s">
         <v>21</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S52" t="s">
         <v>21</v>
       </c>
     </row>
